--- a/resources/data_sheet.xlsx
+++ b/resources/data_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zakir\IdeaProjects\testngproject_JC001\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F114E0E-7907-483E-BD1B-C3F533AB8D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AA34A0-11DF-471F-B5E4-032FBAB835C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43095" yWindow="60" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="user_data" sheetId="1" r:id="rId1"/>
@@ -486,7 +486,7 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -619,7 +619,9 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
